--- a/CV_sections/CV_skills.xlsx
+++ b/CV_sections/CV_skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarjeisandsnes/webpage/CV_sections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AD8C32-DA1A-CD4C-83F4-A1B8FC0A3A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03FF545-CB74-8543-916D-4245EAD47E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="740" windowWidth="27240" windowHeight="16680" activeTab="1" xr2:uid="{FE40DABB-4FED-9749-A094-CDF2AE3042E4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>technical_skills</t>
   </si>
@@ -195,6 +195,138 @@
   </si>
   <si>
     <t>Cross-functional communication</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Norvégien : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Langue maternelle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Anglais : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bilingue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Français :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> C1 (Avancé)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Allemand : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>B1 (Intermédiaire)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chinois : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>B1 (Intermédiaire)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Grec Ancien : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>~1.5 ans</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Latin : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>~1 an</t>
+    </r>
+  </si>
+  <si>
+    <t>Attention aux détails</t>
+  </si>
+  <si>
+    <t>Gestion de projet</t>
+  </si>
+  <si>
+    <t>Capacité d’adaptation</t>
+  </si>
+  <si>
+    <t>Travail en équipe</t>
+  </si>
+  <si>
+    <t>Français Intensif (A2 / B2)
+École Suisse Internationale 
+(Paris, France)
+Sep. 2023 - Déc. 2023</t>
+  </si>
+  <si>
+    <t>Latin Intensif
+Harvard Summer School 
+(Cambridge, États-Unis)
+Juin 2014 - Août 2014</t>
   </si>
 </sst>
 </file>
@@ -730,7 +862,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -755,18 +887,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="84" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="70" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="56" x14ac:dyDescent="0.2">
@@ -774,13 +906,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -788,10 +920,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4"/>
     </row>
@@ -800,10 +932,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5"/>
     </row>
@@ -812,7 +944,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -821,7 +953,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -830,7 +962,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6"/>
     </row>
